--- a/biology/Zoologie/Bulbul_à_queue_blanche/Bulbul_à_queue_blanche.xlsx
+++ b/biology/Zoologie/Bulbul_à_queue_blanche/Bulbul_à_queue_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_queue_blanche</t>
+          <t>Bulbul_à_queue_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baeopogon indicator
 Le Bulbul à queue blanche (Baeopogon indicator) est une espèce de passereaux de la famille des Pycnonotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_queue_blanche</t>
+          <t>Bulbul_à_queue_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Angola, au Bénin, au Cameroun, en République centrafricaine, en République du Congo, en République démocratique du Congo, en Côte d'Ivoire, au Gabon, au Ghana, en Guinée, en Guinée-Bissau, en Guinée équatoriale, au Kenya, au Libéria, au Nigeria, en Ouganda, en Sierra Leone, au Soudan, au Togo et en Zambie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_queue_blanche</t>
+          <t>Bulbul_à_queue_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts subtropicales ou tropicales en plaine.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_queue_blanche</t>
+          <t>Bulbul_à_queue_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe les deux sous-espèces suivantes :
 Baeopogon indicator indicator (Verreaux, J &amp; Verreaux, E) 1855 ;
